--- a/불러올예시파일.xlsx
+++ b/불러올예시파일.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\업무자료\99-주소변환관련\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7362E897-8681-499C-A735-001B1AF12379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C0AF84-B9B9-414E-8DB0-7B5D6C6BDCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>위도</t>
   </si>
@@ -70,6 +70,15 @@
   <si>
     <t>비고</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일산동구 애니골길 52</t>
+  </si>
+  <si>
+    <t>일산동구 중앙로 1317 (장항동)</t>
+  </si>
+  <si>
+    <t>일산동구 위시티2로11번길 45 (식사동, 위시티일산자이 주상복합)</t>
   </si>
 </sst>
 </file>
@@ -676,8 +685,8 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,13 +751,19 @@
       <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
